--- a/reports/snowbowl_Report_20251217.xlsx
+++ b/reports/snowbowl_Report_20251217.xlsx
@@ -1192,7 +1192,7 @@
         <v>14386</v>
       </c>
       <c r="L8" s="4">
-        <v>31818</v>
+        <v>31815</v>
       </c>
       <c r="M8" s="4">
         <v>20450</v>
@@ -1280,7 +1280,7 @@
         <v>28217</v>
       </c>
       <c r="L10" s="4">
-        <v>69020</v>
+        <v>69017</v>
       </c>
       <c r="M10" s="4">
         <v>38775</v>
@@ -1475,7 +1475,7 @@
         <v>27</v>
       </c>
       <c r="B17" s="4">
-        <v>5774.970583333333</v>
+        <v>5774.970583333335</v>
       </c>
       <c r="C17" s="4">
         <v>5109.22</v>
@@ -1484,7 +1484,7 @@
         <v>4453.75</v>
       </c>
       <c r="E17" s="4">
-        <v>16879.76243055555</v>
+        <v>16879.76243055556</v>
       </c>
       <c r="F17" s="4">
         <v>37501.36</v>
@@ -1496,7 +1496,7 @@
         <v>35456.43</v>
       </c>
       <c r="I17" s="4">
-        <v>94820.32173611106</v>
+        <v>94820.32173611109</v>
       </c>
       <c r="J17" s="4">
         <v>62438.18</v>
@@ -1505,7 +1505,7 @@
         <v>67367.44</v>
       </c>
       <c r="L17" s="4">
-        <v>160403.467875</v>
+        <v>160403.4678750001</v>
       </c>
       <c r="M17" s="4">
         <v>91119.56</v>
@@ -1637,7 +1637,7 @@
         <v>21770.55</v>
       </c>
       <c r="L20" s="4">
-        <v>57110.0386166667</v>
+        <v>57110.03861666667</v>
       </c>
       <c r="M20" s="4">
         <v>56229.59</v>
@@ -1748,7 +1748,7 @@
         <v>1039.8</v>
       </c>
       <c r="E23" s="4">
-        <v>6461.023513888889</v>
+        <v>6461.023513888887</v>
       </c>
       <c r="F23" s="4">
         <v>14474.06</v>
@@ -1901,7 +1901,7 @@
         <v>7638.4</v>
       </c>
       <c r="L26" s="4">
-        <v>28965.32604166667</v>
+        <v>28965.32604166668</v>
       </c>
       <c r="M26" s="4">
         <v>16597.4</v>
@@ -2033,7 +2033,7 @@
         <v>15791.01</v>
       </c>
       <c r="L29" s="4">
-        <v>28383.91561111111</v>
+        <v>28383.91561111112</v>
       </c>
       <c r="M29" s="4">
         <v>38777.43</v>
@@ -2288,7 +2288,7 @@
         <v>20464.21</v>
       </c>
       <c r="I35" s="4">
-        <v>54343.41516666667</v>
+        <v>54343.41516666664</v>
       </c>
       <c r="J35" s="4">
         <v>35083.84</v>
@@ -2399,7 +2399,7 @@
         <v>48</v>
       </c>
       <c r="B38" s="4">
-        <v>2172.2465</v>
+        <v>2379.546055555556</v>
       </c>
       <c r="C38" s="4">
         <v>1456.62</v>
@@ -2408,7 +2408,7 @@
         <v>1861.04</v>
       </c>
       <c r="E38" s="4">
-        <v>5381.294083333334</v>
+        <v>5588.593638888889</v>
       </c>
       <c r="F38" s="4">
         <v>12558.03</v>
@@ -2420,7 +2420,7 @@
         <v>14059.57</v>
       </c>
       <c r="I38" s="4">
-        <v>33817.23563888889</v>
+        <v>34024.53519444445</v>
       </c>
       <c r="J38" s="4">
         <v>24760</v>
@@ -2429,7 +2429,7 @@
         <v>28244.48</v>
       </c>
       <c r="L38" s="4">
-        <v>70284.11994444442</v>
+        <v>70491.41950000002</v>
       </c>
       <c r="M38" s="4">
         <v>55654.97</v>
@@ -2443,43 +2443,43 @@
         <v>49</v>
       </c>
       <c r="B39" s="5">
-        <v>2922.253068424785</v>
+        <v>3.748583467035561</v>
       </c>
       <c r="C39" s="5">
-        <v>6183.355988521372</v>
+        <v>1.61724474841231</v>
       </c>
       <c r="D39" s="5">
-        <v>3006.305614065254</v>
+        <v>3.326341790806017</v>
       </c>
       <c r="E39" s="5">
-        <v>3371.116820428989</v>
+        <v>3.080647468588583</v>
       </c>
       <c r="F39" s="5">
-        <v>6138.574282749762</v>
+        <v>1.629042761297419</v>
       </c>
       <c r="G39" s="5">
-        <v>2898.16948738781</v>
+        <v>3.450453827327139</v>
       </c>
       <c r="H39" s="5">
-        <v>3929.537745464477</v>
+        <v>2.544828589963827</v>
       </c>
       <c r="I39" s="5">
-        <v>4123.986344987428</v>
+        <v>2.43970254241519</v>
       </c>
       <c r="J39" s="5">
-        <v>5093.836833602584</v>
+        <v>1.963156717944489</v>
       </c>
       <c r="K39" s="5">
-        <v>2616.229401284782</v>
+        <v>3.822294786187016</v>
       </c>
       <c r="L39" s="5">
-        <v>2877.806354548911</v>
+        <v>3.485117924073195</v>
       </c>
       <c r="M39" s="5">
-        <v>3393.36271315931</v>
+        <v>2.9469292985452</v>
       </c>
       <c r="N39" s="5">
-        <v>2163.618091804563</v>
+        <v>4.62188777117292</v>
       </c>
     </row>
     <row r="40" spans="1:14">
@@ -2561,7 +2561,7 @@
         <v>91493.41</v>
       </c>
       <c r="L41" s="4">
-        <v>81728.28329166665</v>
+        <v>81728.28329166667</v>
       </c>
       <c r="M41" s="4">
         <v>111311.37</v>
@@ -2575,43 +2575,43 @@
         <v>52</v>
       </c>
       <c r="B42" s="5">
-        <v>849.2090193109592</v>
+        <v>11.77566390912088</v>
       </c>
       <c r="C42" s="5">
-        <v>359.1465675361817</v>
+        <v>27.8437855291282</v>
       </c>
       <c r="D42" s="5">
-        <v>110.7170191280763</v>
+        <v>90.32035073516657</v>
       </c>
       <c r="E42" s="5">
-        <v>859.3758435407883</v>
+        <v>11.63635221441429</v>
       </c>
       <c r="F42" s="5">
-        <v>402.5932911027611</v>
+        <v>24.83896334339939</v>
       </c>
       <c r="G42" s="5">
-        <v>84.88050873219196</v>
+        <v>117.8126774846647</v>
       </c>
       <c r="H42" s="5">
-        <v>48.66678843506019</v>
+        <v>205.4789379279416</v>
       </c>
       <c r="I42" s="5">
-        <v>511.4689821240892</v>
+        <v>19.5515277553505</v>
       </c>
       <c r="J42" s="5">
-        <v>256.1881041387178</v>
+        <v>39.03381866078103</v>
       </c>
       <c r="K42" s="5">
-        <v>55.13673607749454</v>
+        <v>181.3672827122923</v>
       </c>
       <c r="L42" s="5">
-        <v>264.6643136110696</v>
+        <v>37.7837112361708</v>
       </c>
       <c r="M42" s="5">
-        <v>181.8125138519093</v>
+        <v>55.00171461324847</v>
       </c>
       <c r="N42" s="5">
-        <v>60.00180302553013</v>
+        <v>166.6616584129165</v>
       </c>
     </row>
     <row r="43" spans="1:14">
@@ -2663,7 +2663,7 @@
         <v>54</v>
       </c>
       <c r="B44" s="4">
-        <v>2120.164069444445</v>
+        <v>2120.164069444444</v>
       </c>
       <c r="C44" s="4">
         <v>1954.24</v>
@@ -2672,7 +2672,7 @@
         <v>2160.67</v>
       </c>
       <c r="E44" s="4">
-        <v>6232.668847222224</v>
+        <v>6232.668847222223</v>
       </c>
       <c r="F44" s="4">
         <v>14561.95</v>
@@ -2693,7 +2693,7 @@
         <v>31085.97</v>
       </c>
       <c r="L44" s="4">
-        <v>51462.38805555553</v>
+        <v>51462.38805555552</v>
       </c>
       <c r="M44" s="4">
         <v>50930.36</v>
@@ -2707,43 +2707,43 @@
         <v>55</v>
       </c>
       <c r="B45" s="5">
-        <v>1213.548063133715</v>
+        <v>8.240299913772883</v>
       </c>
       <c r="C45" s="5">
-        <v>1630.147781234649</v>
+        <v>6.134413158803403</v>
       </c>
       <c r="D45" s="5">
-        <v>1033.752493439535</v>
+        <v>9.673495409648469</v>
       </c>
       <c r="E45" s="5">
-        <v>1189.206290544916</v>
+        <v>8.408969982338233</v>
       </c>
       <c r="F45" s="5">
-        <v>1987.357462427766</v>
+        <v>5.031807407100257</v>
       </c>
       <c r="G45" s="5">
-        <v>1026.025610408612</v>
+        <v>9.746345411414758</v>
       </c>
       <c r="H45" s="5">
-        <v>1164.803293020944</v>
+        <v>8.585140564004393</v>
       </c>
       <c r="I45" s="5">
-        <v>1386.318708418777</v>
+        <v>7.213348517388122</v>
       </c>
       <c r="J45" s="5">
-        <v>1362.737996047183</v>
+        <v>7.33816773951151</v>
       </c>
       <c r="K45" s="5">
-        <v>949.2255187790505</v>
+        <v>10.53490430057399</v>
       </c>
       <c r="L45" s="5">
-        <v>1121.062200567117</v>
+        <v>8.920111653877234</v>
       </c>
       <c r="M45" s="5">
-        <v>853.1316095154245</v>
+        <v>11.72152091009728</v>
       </c>
       <c r="N45" s="5">
-        <v>896.1988059783907</v>
+        <v>11.15823847710094</v>
       </c>
     </row>
     <row r="46" spans="1:14">
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="C48" s="5">
-        <v>298.415628364867</v>
+        <v>33.51030927835051</v>
       </c>
       <c r="D48" s="5">
         <v>0</v>
@@ -2851,7 +2851,7 @@
         <v>0</v>
       </c>
       <c r="F48" s="5">
-        <v>233.2264529058116</v>
+        <v>42.87678295239732</v>
       </c>
       <c r="G48" s="5">
         <v>0</v>
@@ -2863,7 +2863,7 @@
         <v>0</v>
       </c>
       <c r="J48" s="5">
-        <v>213.7504683402023</v>
+        <v>46.78352322524102</v>
       </c>
       <c r="K48" s="5">
         <v>0</v>
@@ -2872,7 +2872,7 @@
         <v>0</v>
       </c>
       <c r="M48" s="5">
-        <v>142.3427118070919</v>
+        <v>70.25298220784472</v>
       </c>
       <c r="N48" s="5">
         <v>0</v>
@@ -2974,7 +2974,7 @@
         <v>0</v>
       </c>
       <c r="C51" s="5">
-        <v>360.9848484848486</v>
+        <v>27.70199370409234</v>
       </c>
       <c r="D51" s="5">
         <v>0</v>
@@ -2983,7 +2983,7 @@
         <v>0</v>
       </c>
       <c r="F51" s="5">
-        <v>531.2166698036264</v>
+        <v>18.82471045891063</v>
       </c>
       <c r="G51" s="5">
         <v>0</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="J51" s="5">
-        <v>388.687708284895</v>
+        <v>25.72759515376889</v>
       </c>
       <c r="K51" s="5">
         <v>0</v>
@@ -3004,7 +3004,7 @@
         <v>0</v>
       </c>
       <c r="M51" s="5">
-        <v>431.5794824248931</v>
+        <v>23.17070298109058</v>
       </c>
       <c r="N51" s="5">
         <v>0</v>
@@ -3103,43 +3103,43 @@
         <v>64</v>
       </c>
       <c r="B54" s="5">
-        <v>1577.586824748333</v>
+        <v>6.338795331658062</v>
       </c>
       <c r="C54" s="5">
-        <v>1611.059387504457</v>
+        <v>6.207095826237712</v>
       </c>
       <c r="D54" s="5">
-        <v>1420.612089185294</v>
+        <v>7.039219274654275</v>
       </c>
       <c r="E54" s="5">
-        <v>1381.192082407194</v>
+        <v>7.240122592197038</v>
       </c>
       <c r="F54" s="5">
-        <v>2282.297718198159</v>
+        <v>4.381549313336236</v>
       </c>
       <c r="G54" s="5">
-        <v>973.7170702860684</v>
+        <v>10.26992368230958</v>
       </c>
       <c r="H54" s="5">
-        <v>1357.962139778981</v>
+        <v>7.363975553565563</v>
       </c>
       <c r="I54" s="5">
-        <v>1339.496982289157</v>
+        <v>7.465489009844815</v>
       </c>
       <c r="J54" s="5">
-        <v>1596.500075704191</v>
+        <v>6.263701550774532</v>
       </c>
       <c r="K54" s="5">
-        <v>862.9604203033484</v>
+        <v>11.58801697589421</v>
       </c>
       <c r="L54" s="5">
-        <v>1160.697642926162</v>
+        <v>8.61550814800453</v>
       </c>
       <c r="M54" s="5">
-        <v>938.9169372485353</v>
+        <v>10.65056939893391</v>
       </c>
       <c r="N54" s="5">
-        <v>754.2598238976778</v>
+        <v>13.25803083123859</v>
       </c>
     </row>
     <row r="55" spans="1:14">
@@ -3221,7 +3221,7 @@
         <v>2525.19</v>
       </c>
       <c r="L56" s="4">
-        <v>4647.97073611111</v>
+        <v>4647.970736111111</v>
       </c>
       <c r="M56" s="4">
         <v>7261.5</v>
@@ -3235,43 +3235,43 @@
         <v>67</v>
       </c>
       <c r="B57" s="5">
-        <v>4.201523005281002</v>
+        <v>2380.089312240048</v>
       </c>
       <c r="C57" s="5">
-        <v>120.7702265372168</v>
+        <v>82.80186505171767</v>
       </c>
       <c r="D57" s="5">
         <v>0</v>
       </c>
       <c r="E57" s="5">
-        <v>12.86856845601441</v>
+        <v>777.0872132499153</v>
       </c>
       <c r="F57" s="5">
-        <v>105.161845585457</v>
+        <v>95.09152244645388</v>
       </c>
       <c r="G57" s="5">
         <v>0</v>
       </c>
       <c r="H57" s="5">
-        <v>2.910840866228783</v>
+        <v>3435.433422698839</v>
       </c>
       <c r="I57" s="5">
-        <v>5.744909262282087</v>
+        <v>1740.671530820251</v>
       </c>
       <c r="J57" s="5">
-        <v>101.4452693698839</v>
+        <v>98.5753210781922</v>
       </c>
       <c r="K57" s="5">
         <v>0</v>
       </c>
       <c r="L57" s="5">
-        <v>4.40923602224463</v>
+        <v>2267.966593203431</v>
       </c>
       <c r="M57" s="5">
-        <v>49.58755078151897</v>
+        <v>201.6635192179515</v>
       </c>
       <c r="N57" s="5">
-        <v>0.07237827783125729</v>
+        <v>138163</v>
       </c>
     </row>
     <row r="58" spans="1:14">
@@ -3464,7 +3464,7 @@
         <v>1162.84</v>
       </c>
       <c r="E62" s="4">
-        <v>4936.024208333334</v>
+        <v>4936.024208333332</v>
       </c>
       <c r="F62" s="4">
         <v>7958.19</v>
@@ -3485,7 +3485,7 @@
         <v>18901.1</v>
       </c>
       <c r="L62" s="4">
-        <v>56818.43129166668</v>
+        <v>56818.43129166667</v>
       </c>
       <c r="M62" s="4">
         <v>42525.2</v>
@@ -3499,43 +3499,43 @@
         <v>73</v>
       </c>
       <c r="B63" s="5">
-        <v>440.2101682915852</v>
+        <v>22.71642210994142</v>
       </c>
       <c r="C63" s="5">
-        <v>906.0632154796881</v>
+        <v>11.03675751222921</v>
       </c>
       <c r="D63" s="5">
-        <v>593.8813594303602</v>
+        <v>16.83837999157241</v>
       </c>
       <c r="E63" s="5">
-        <v>484.7723388309624</v>
+        <v>20.62823968899542</v>
       </c>
       <c r="F63" s="5">
-        <v>708.4701420800459</v>
+        <v>14.11492087816195</v>
       </c>
       <c r="G63" s="5">
-        <v>570.3845894225252</v>
+        <v>17.53203046759083</v>
       </c>
       <c r="H63" s="5">
-        <v>695.6259345392195</v>
+        <v>14.37554223251318</v>
       </c>
       <c r="I63" s="5">
-        <v>510.4572918917231</v>
+        <v>19.59027749988764</v>
       </c>
       <c r="J63" s="5">
-        <v>603.2968101076257</v>
+        <v>16.57558905079581</v>
       </c>
       <c r="K63" s="5">
-        <v>618.3171878885356</v>
+        <v>16.17292903363816</v>
       </c>
       <c r="L63" s="5">
-        <v>548.905034704367</v>
+        <v>18.21808758847669</v>
       </c>
       <c r="M63" s="5">
-        <v>347.9475699114878</v>
+        <v>28.73996218034757</v>
       </c>
       <c r="N63" s="5">
-        <v>562.1587065005394</v>
+        <v>17.78857088641463</v>
       </c>
     </row>
     <row r="64" spans="1:14">
@@ -3596,7 +3596,7 @@
         <v>1868.3</v>
       </c>
       <c r="E65" s="4">
-        <v>7673.260805555556</v>
+        <v>7673.260805555557</v>
       </c>
       <c r="F65" s="4">
         <v>15613.78</v>
@@ -3617,7 +3617,7 @@
         <v>29130.29</v>
       </c>
       <c r="L65" s="4">
-        <v>64031.44686111114</v>
+        <v>64031.44686111112</v>
       </c>
       <c r="M65" s="4">
         <v>50811.8</v>
@@ -3631,43 +3631,43 @@
         <v>76</v>
       </c>
       <c r="B66" s="5">
-        <v>855.6680656709025</v>
+        <v>11.68677481513735</v>
       </c>
       <c r="C66" s="5">
-        <v>732.4581290028673</v>
+        <v>13.6526575431875</v>
       </c>
       <c r="D66" s="5">
-        <v>601.9450837659905</v>
+        <v>16.61281115120388</v>
       </c>
       <c r="E66" s="5">
-        <v>719.034858818478</v>
+        <v>13.90753157146241</v>
       </c>
       <c r="F66" s="5">
-        <v>689.7276636407071</v>
+        <v>14.49847603214187</v>
       </c>
       <c r="G66" s="5">
-        <v>679.5570408502158</v>
+        <v>14.71546816362711</v>
       </c>
       <c r="H66" s="5">
-        <v>720.535477085804</v>
+        <v>13.87856714626303</v>
       </c>
       <c r="I66" s="5">
-        <v>622.4791570254989</v>
+        <v>16.06479492066007</v>
       </c>
       <c r="J66" s="5">
-        <v>637.9504429693562</v>
+        <v>15.6751987716393</v>
       </c>
       <c r="K66" s="5">
-        <v>538.0679698005066</v>
+        <v>18.58501260297577</v>
       </c>
       <c r="L66" s="5">
-        <v>610.6710829885731</v>
+        <v>16.37542742495819</v>
       </c>
       <c r="M66" s="5">
-        <v>556.2185358519084</v>
+        <v>17.97854504198413</v>
       </c>
       <c r="N66" s="5">
-        <v>493.3162170165738</v>
+        <v>20.27097357649614</v>
       </c>
     </row>
     <row r="67" spans="1:14">
@@ -3740,7 +3740,7 @@
         <v>2978.08</v>
       </c>
       <c r="I68" s="4">
-        <v>7110.665944444446</v>
+        <v>7110.665944444443</v>
       </c>
       <c r="J68" s="4">
         <v>6659.04</v>
@@ -3749,7 +3749,7 @@
         <v>6180.66</v>
       </c>
       <c r="L68" s="4">
-        <v>18294.16861111111</v>
+        <v>18294.16861111112</v>
       </c>
       <c r="M68" s="4">
         <v>17425.47</v>
@@ -3763,43 +3763,43 @@
         <v>79</v>
       </c>
       <c r="B69" s="5">
-        <v>347.9850253996967</v>
+        <v>28.73686874460752</v>
       </c>
       <c r="C69" s="5">
-        <v>344.9253235977431</v>
+        <v>28.99178261455266</v>
       </c>
       <c r="D69" s="5">
-        <v>233.9336096694417</v>
+        <v>42.7471709350804</v>
       </c>
       <c r="E69" s="5">
-        <v>196.8186716867331</v>
+        <v>50.80818762925362</v>
       </c>
       <c r="F69" s="5">
-        <v>252.8112261387212</v>
+        <v>39.55520548962036</v>
       </c>
       <c r="G69" s="5">
-        <v>210.8317988952046</v>
+        <v>47.43117524207328</v>
       </c>
       <c r="H69" s="5">
-        <v>192.7584215333369</v>
+        <v>51.87840780419823</v>
       </c>
       <c r="I69" s="5">
-        <v>208.1194661037647</v>
+        <v>48.04932564556057</v>
       </c>
       <c r="J69" s="5">
-        <v>265.3148201542564</v>
+        <v>37.691072041079</v>
       </c>
       <c r="K69" s="5">
-        <v>217.4984548575719</v>
+        <v>45.97733812200398</v>
       </c>
       <c r="L69" s="5">
-        <v>211.5146679937036</v>
+        <v>47.27804503987253</v>
       </c>
       <c r="M69" s="5">
-        <v>242.0773729489075</v>
+        <v>41.30910658102103</v>
       </c>
       <c r="N69" s="5">
-        <v>203.4349209679676</v>
+        <v>49.15576909027619</v>
       </c>
     </row>
     <row r="70" spans="1:14">
@@ -3895,7 +3895,7 @@
         <v>82</v>
       </c>
       <c r="B72" s="5">
-        <v>290.3493724836576</v>
+        <v>34.44126610111014</v>
       </c>
       <c r="C72" s="5">
         <v>0</v>
@@ -3904,19 +3904,19 @@
         <v>0</v>
       </c>
       <c r="E72" s="5">
-        <v>240.3546294546483</v>
+        <v>41.6051898924912</v>
       </c>
       <c r="F72" s="5">
-        <v>269.49680749745</v>
+        <v>37.10619095216786</v>
       </c>
       <c r="G72" s="5">
         <v>0</v>
       </c>
       <c r="H72" s="5">
-        <v>339.8594210418115</v>
+        <v>29.42393054559386</v>
       </c>
       <c r="I72" s="5">
-        <v>178.6887447680176</v>
+        <v>55.96323379506909</v>
       </c>
       <c r="J72" s="5">
         <v>0</v>
@@ -3925,7 +3925,7 @@
         <v>0</v>
       </c>
       <c r="L72" s="5">
-        <v>169.3712959728732</v>
+        <v>59.04188158069958</v>
       </c>
       <c r="M72" s="5">
         <v>0</v>
@@ -4277,7 +4277,7 @@
         <v>9415.24</v>
       </c>
       <c r="L80" s="4">
-        <v>21473.97187499999</v>
+        <v>21473.971875</v>
       </c>
       <c r="M80" s="4">
         <v>25651.08</v>
@@ -4294,7 +4294,7 @@
         <v>0</v>
       </c>
       <c r="C81" s="5">
-        <v>435.9996278146517</v>
+        <v>22.93579939534057</v>
       </c>
       <c r="D81" s="5">
         <v>0</v>
@@ -4303,7 +4303,7 @@
         <v>0</v>
       </c>
       <c r="F81" s="5">
-        <v>469.3019475750781</v>
+        <v>21.30824312933459</v>
       </c>
       <c r="G81" s="5">
         <v>0</v>
@@ -4315,7 +4315,7 @@
         <v>0</v>
       </c>
       <c r="J81" s="5">
-        <v>330.0085538528737</v>
+        <v>30.30224484562378</v>
       </c>
       <c r="K81" s="5">
         <v>0</v>
@@ -4324,7 +4324,7 @@
         <v>0</v>
       </c>
       <c r="M81" s="5">
-        <v>271.8952964163692</v>
+        <v>36.77886352504758</v>
       </c>
       <c r="N81" s="5">
         <v>0</v>
@@ -4643,7 +4643,7 @@
         <v>99</v>
       </c>
       <c r="B89" s="4">
-        <v>613.0215277777777</v>
+        <v>613.0215277777778</v>
       </c>
       <c r="C89" s="4">
         <v>472.77</v>
@@ -4664,7 +4664,7 @@
         <v>3837.62</v>
       </c>
       <c r="I89" s="4">
-        <v>6968.994250000004</v>
+        <v>6968.994250000002</v>
       </c>
       <c r="J89" s="4">
         <v>6313.14</v>
@@ -4673,7 +4673,7 @@
         <v>8031.07</v>
       </c>
       <c r="L89" s="4">
-        <v>9338.122166666666</v>
+        <v>9338.122166666664</v>
       </c>
       <c r="M89" s="4">
         <v>10875.99</v>
@@ -4907,7 +4907,7 @@
         <v>105</v>
       </c>
       <c r="B95" s="4">
-        <v>503.0406666666667</v>
+        <v>885.8773333333334</v>
       </c>
       <c r="C95" s="4">
         <v>922.59</v>
@@ -4916,7 +4916,7 @@
         <v>1050.31</v>
       </c>
       <c r="E95" s="4">
-        <v>2243.929013888889</v>
+        <v>2626.765680555556</v>
       </c>
       <c r="F95" s="4">
         <v>6490.85</v>
@@ -4928,7 +4928,7 @@
         <v>6359.67</v>
       </c>
       <c r="I95" s="4">
-        <v>15270.23433333333</v>
+        <v>15653.07099999999</v>
       </c>
       <c r="J95" s="4">
         <v>12708.63</v>
@@ -4937,7 +4937,7 @@
         <v>12083.33</v>
       </c>
       <c r="L95" s="4">
-        <v>28800.07593055555</v>
+        <v>29182.91259722222</v>
       </c>
       <c r="M95" s="4">
         <v>22820.44</v>
@@ -5069,7 +5069,7 @@
         <v>10578.51</v>
       </c>
       <c r="L98" s="4">
-        <v>36719.6557361111</v>
+        <v>36719.65573611111</v>
       </c>
       <c r="M98" s="4">
         <v>33233.29</v>
@@ -5893,10 +5893,10 @@
         <v>0</v>
       </c>
       <c r="H117" s="5">
-        <v>0.3375641371860654</v>
+        <v>29624</v>
       </c>
       <c r="I117" s="5">
-        <v>0.001785714285714286</v>
+        <v>5600000</v>
       </c>
       <c r="J117" s="5">
         <v>0</v>
@@ -5905,13 +5905,13 @@
         <v>0</v>
       </c>
       <c r="L117" s="5">
-        <v>0.0003968253968253968</v>
+        <v>25200000</v>
       </c>
       <c r="M117" s="5">
-        <v>44.66280887355396</v>
+        <v>223.8999349170192</v>
       </c>
       <c r="N117" s="5">
-        <v>0.09598051869700504</v>
+        <v>104187.8095238095</v>
       </c>
     </row>
     <row r="118" spans="1:14">
@@ -5972,7 +5972,7 @@
         <v>759.34</v>
       </c>
       <c r="E119" s="4">
-        <v>2832.836027777777</v>
+        <v>2832.836027777778</v>
       </c>
       <c r="F119" s="4">
         <v>6115.47</v>
@@ -7292,7 +7292,7 @@
         <v>0</v>
       </c>
       <c r="E149" s="4">
-        <v>780.8736250000001</v>
+        <v>780.8736249999999</v>
       </c>
       <c r="F149" s="4">
         <v>0</v>
@@ -7313,7 +7313,7 @@
         <v>0</v>
       </c>
       <c r="L149" s="4">
-        <v>2639.306291666666</v>
+        <v>2639.306291666667</v>
       </c>
       <c r="M149" s="4">
         <v>0</v>
@@ -8075,7 +8075,7 @@
         <v>177</v>
       </c>
       <c r="B169" s="4">
-        <v>37110.81121388889</v>
+        <v>37700.94743611113</v>
       </c>
       <c r="C169" s="4">
         <v>39338.7</v>
@@ -8084,7 +8084,7 @@
         <v>33707.21000000001</v>
       </c>
       <c r="E169" s="4">
-        <v>107278.4103416667</v>
+        <v>107868.5465638889</v>
       </c>
       <c r="F169" s="4">
         <v>285698.78</v>
@@ -8096,7 +8096,7 @@
         <v>361695.96</v>
       </c>
       <c r="I169" s="4">
-        <v>644459.6966722222</v>
+        <v>645049.8328944443</v>
       </c>
       <c r="J169" s="4">
         <v>563921.2999999998</v>
@@ -8105,7 +8105,7 @@
         <v>613576.98</v>
       </c>
       <c r="L169" s="4">
-        <v>1419415.063552778</v>
+        <v>1420005.199775</v>
       </c>
       <c r="M169" s="4">
         <v>1258210.02</v>
@@ -8119,43 +8119,43 @@
         <v>178</v>
       </c>
       <c r="B170" s="5">
-        <v>376.9283274186388</v>
+        <v>26.95212667389312</v>
       </c>
       <c r="C170" s="5">
-        <v>453.8366544903619</v>
+        <v>22.03435950150291</v>
       </c>
       <c r="D170" s="5">
-        <v>314.294360168047</v>
+        <v>31.81730653599127</v>
       </c>
       <c r="E170" s="5">
-        <v>373.8986145698028</v>
+        <v>26.89234298435558</v>
       </c>
       <c r="F170" s="5">
-        <v>538.7135534845477</v>
+        <v>18.56274069088711</v>
       </c>
       <c r="G170" s="5">
-        <v>292.4364521892052</v>
+        <v>34.19546340799553</v>
       </c>
       <c r="H170" s="5">
-        <v>293.1450713466636</v>
+        <v>34.11280276370171</v>
       </c>
       <c r="I170" s="5">
-        <v>400.7818771813241</v>
+        <v>24.97407602329244</v>
       </c>
       <c r="J170" s="5">
-        <v>404.4665931221255</v>
+        <v>24.72392076390986</v>
       </c>
       <c r="K170" s="5">
-        <v>241.7608805988778</v>
+        <v>41.36318487601678</v>
       </c>
       <c r="L170" s="5">
-        <v>272.716244838983</v>
+        <v>36.6833945202794</v>
       </c>
       <c r="M170" s="5">
-        <v>265.2738920327466</v>
+        <v>37.69688725630622</v>
       </c>
       <c r="N170" s="5">
-        <v>191.6192966612359</v>
+        <v>52.18681090182174</v>
       </c>
     </row>
     <row r="171" spans="1:14">
@@ -8163,7 +8163,7 @@
         <v>179</v>
       </c>
       <c r="B171" s="4">
-        <v>102770.3487861111</v>
+        <v>102180.2125638889</v>
       </c>
       <c r="C171" s="4">
         <v>139194.74</v>
@@ -8172,7 +8172,7 @@
         <v>72232.64999999999</v>
       </c>
       <c r="E171" s="4">
-        <v>293834.0796583332</v>
+        <v>293243.943436111</v>
       </c>
       <c r="F171" s="4">
         <v>1253399.27</v>
@@ -8184,7 +8184,7 @@
         <v>698597.9199999999</v>
       </c>
       <c r="I171" s="4">
-        <v>1938417.973327778</v>
+        <v>1937827.837105555</v>
       </c>
       <c r="J171" s="4">
         <v>1716951.97</v>
@@ -8193,7 +8193,7 @@
         <v>869812.1300000001</v>
       </c>
       <c r="L171" s="4">
-        <v>2451560.396447222</v>
+        <v>2450970.260225</v>
       </c>
       <c r="M171" s="4">
         <v>2079492.67</v>
